--- a/DateBase/orders/Nha Thu_2024-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-14.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01111111110</v>
+        <v>01111111111</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-14.xlsx
@@ -592,6 +592,9 @@
       <c r="G2" t="str">
         <v>01111111111</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
